--- a/forms.xlsx
+++ b/forms.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -68,6 +68,63 @@
   </si>
   <si>
     <t>123456789</t>
+  </si>
+  <si>
+    <t>Jayant</t>
+  </si>
+  <si>
+    <t>9108567023</t>
+  </si>
+  <si>
+    <t>Bhai</t>
+  </si>
+  <si>
+    <t>078997203</t>
+  </si>
+  <si>
+    <t>avvimari</t>
+  </si>
+  <si>
+    <t>6362078007</t>
+  </si>
+  <si>
+    <t>Avvi</t>
+  </si>
+  <si>
+    <t>Aeee</t>
+  </si>
+  <si>
+    <t>ewww</t>
+  </si>
+  <si>
+    <t>7899720344</t>
+  </si>
+  <si>
+    <t>wqe</t>
+  </si>
+  <si>
+    <t>eqe</t>
+  </si>
+  <si>
+    <t>0789972034</t>
+  </si>
+  <si>
+    <t>ganga</t>
+  </si>
+  <si>
+    <t>Sanjeev</t>
+  </si>
+  <si>
+    <t>AvviAvvi</t>
+  </si>
+  <si>
+    <t>362078007</t>
+  </si>
+  <si>
+    <t>Aniketh</t>
+  </si>
+  <si>
+    <t>0362078007</t>
   </si>
 </sst>
 </file>
@@ -444,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E20"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -573,6 +630,227 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
